--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H2">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I2">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J2">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7567149999999999</v>
+        <v>0.7004666666666667</v>
       </c>
       <c r="N2">
-        <v>2.270145</v>
+        <v>2.1014</v>
       </c>
       <c r="O2">
-        <v>0.07973436174489927</v>
+        <v>0.08010868614664106</v>
       </c>
       <c r="P2">
-        <v>0.07973436174489928</v>
+        <v>0.08010868614664106</v>
       </c>
       <c r="Q2">
-        <v>11.45690422194</v>
+        <v>21.81952172337778</v>
       </c>
       <c r="R2">
-        <v>103.11213799746</v>
+        <v>196.3756955104</v>
       </c>
       <c r="S2">
-        <v>0.02574747919222888</v>
+        <v>0.03702414419119383</v>
       </c>
       <c r="T2">
-        <v>0.02574747919222888</v>
+        <v>0.03702414419119383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H3">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I3">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J3">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.474244666666666</v>
+        <v>3.474244666666667</v>
       </c>
       <c r="N3">
         <v>10.422734</v>
       </c>
       <c r="O3">
-        <v>0.3660779567502785</v>
+        <v>0.3973310777557461</v>
       </c>
       <c r="P3">
-        <v>0.3660779567502785</v>
+        <v>0.3973310777557461</v>
       </c>
       <c r="Q3">
-        <v>52.60116211464798</v>
+        <v>108.2226472494471</v>
       </c>
       <c r="R3">
-        <v>473.4104590318319</v>
+        <v>974.0038252450241</v>
       </c>
       <c r="S3">
-        <v>0.1182123286358961</v>
+        <v>0.1836360552405341</v>
       </c>
       <c r="T3">
-        <v>0.1182123286358961</v>
+        <v>0.1836360552405341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H4">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I4">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J4">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.995365333333333</v>
+        <v>2.336226333333333</v>
       </c>
       <c r="N4">
-        <v>8.986096</v>
+        <v>7.008679</v>
       </c>
       <c r="O4">
-        <v>0.3156188829957525</v>
+        <v>0.2671819103043467</v>
       </c>
       <c r="P4">
-        <v>0.3156188829957525</v>
+        <v>0.2671819103043467</v>
       </c>
       <c r="Q4">
-        <v>45.350777682112</v>
+        <v>72.77340044383823</v>
       </c>
       <c r="R4">
-        <v>408.156999139008</v>
+        <v>654.960603994544</v>
       </c>
       <c r="S4">
-        <v>0.1019183002756966</v>
+        <v>0.1234845064651148</v>
       </c>
       <c r="T4">
-        <v>0.1019183002756966</v>
+        <v>0.1234845064651148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H5">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I5">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J5">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.264125333333334</v>
+        <v>2.233016333333333</v>
       </c>
       <c r="N5">
-        <v>6.792376000000001</v>
+        <v>6.699049</v>
       </c>
       <c r="O5">
-        <v>0.2385687985090697</v>
+        <v>0.2553783257932662</v>
       </c>
       <c r="P5">
-        <v>0.2385687985090697</v>
+        <v>0.2553783257932662</v>
       </c>
       <c r="Q5">
-        <v>34.279573010272</v>
+        <v>69.55841114565156</v>
       </c>
       <c r="R5">
-        <v>308.516157092448</v>
+        <v>626.0257003108641</v>
       </c>
       <c r="S5">
-        <v>0.07703761641912515</v>
+        <v>0.1180291977347829</v>
       </c>
       <c r="T5">
-        <v>0.07703761641912514</v>
+        <v>0.1180291977347829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H6">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I6">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J6">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7567149999999999</v>
+        <v>0.7004666666666667</v>
       </c>
       <c r="N6">
-        <v>2.270145</v>
+        <v>2.1014</v>
       </c>
       <c r="O6">
-        <v>0.07973436174489927</v>
+        <v>0.08010868614664106</v>
       </c>
       <c r="P6">
-        <v>0.07973436174489928</v>
+        <v>0.08010868614664106</v>
       </c>
       <c r="Q6">
-        <v>14.33271154826166</v>
+        <v>13.26732875984444</v>
       </c>
       <c r="R6">
-        <v>128.994403934355</v>
+        <v>119.4059588386</v>
       </c>
       <c r="S6">
-        <v>0.03221037596267848</v>
+        <v>0.02251247755399522</v>
       </c>
       <c r="T6">
-        <v>0.03221037596267848</v>
+        <v>0.02251247755399522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H7">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I7">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J7">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.474244666666666</v>
+        <v>3.474244666666667</v>
       </c>
       <c r="N7">
         <v>10.422734</v>
       </c>
       <c r="O7">
-        <v>0.3660779567502785</v>
+        <v>0.3973310777557461</v>
       </c>
       <c r="P7">
-        <v>0.3660779567502785</v>
+        <v>0.3973310777557461</v>
       </c>
       <c r="Q7">
-        <v>65.80462479985175</v>
+        <v>65.80462479985178</v>
       </c>
       <c r="R7">
-        <v>592.2416231986658</v>
+        <v>592.241623198666</v>
       </c>
       <c r="S7">
-        <v>0.1478849063381378</v>
+        <v>0.1116596389198929</v>
       </c>
       <c r="T7">
-        <v>0.1478849063381377</v>
+        <v>0.1116596389198929</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H8">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I8">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J8">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.995365333333333</v>
+        <v>2.336226333333333</v>
       </c>
       <c r="N8">
-        <v>8.986096</v>
+        <v>7.008679</v>
       </c>
       <c r="O8">
-        <v>0.3156188829957525</v>
+        <v>0.2671819103043467</v>
       </c>
       <c r="P8">
-        <v>0.3156188829957525</v>
+        <v>0.2671819103043467</v>
       </c>
       <c r="Q8">
-        <v>56.73431517061154</v>
+        <v>44.24976133302456</v>
       </c>
       <c r="R8">
-        <v>510.6088365355039</v>
+        <v>398.247851997221</v>
       </c>
       <c r="S8">
-        <v>0.1275008999851205</v>
+        <v>0.07508457631610245</v>
       </c>
       <c r="T8">
-        <v>0.1275008999851205</v>
+        <v>0.07508457631610245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H9">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I9">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J9">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.264125333333334</v>
+        <v>2.233016333333333</v>
       </c>
       <c r="N9">
-        <v>6.792376000000001</v>
+        <v>6.699049</v>
       </c>
       <c r="O9">
-        <v>0.2385687985090697</v>
+        <v>0.2553783257932662</v>
       </c>
       <c r="P9">
-        <v>0.2385687985090697</v>
+        <v>0.2553783257932662</v>
       </c>
       <c r="Q9">
-        <v>42.88411794635822</v>
+        <v>42.29489172042789</v>
       </c>
       <c r="R9">
-        <v>385.957061517224</v>
+        <v>380.6540254838511</v>
       </c>
       <c r="S9">
-        <v>0.09637489439655805</v>
+        <v>0.07176748369925486</v>
       </c>
       <c r="T9">
-        <v>0.09637489439655804</v>
+        <v>0.07176748369925486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H10">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I10">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J10">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7567149999999999</v>
+        <v>0.7004666666666667</v>
       </c>
       <c r="N10">
-        <v>2.270145</v>
+        <v>2.1014</v>
       </c>
       <c r="O10">
-        <v>0.07973436174489927</v>
+        <v>0.08010868614664106</v>
       </c>
       <c r="P10">
-        <v>0.07973436174489928</v>
+        <v>0.08010868614664106</v>
       </c>
       <c r="Q10">
-        <v>7.252378504735</v>
+        <v>10.414874624</v>
       </c>
       <c r="R10">
-        <v>65.271406542615</v>
+        <v>93.733871616</v>
       </c>
       <c r="S10">
-        <v>0.01629850970450143</v>
+        <v>0.01767233144249178</v>
       </c>
       <c r="T10">
-        <v>0.01629850970450142</v>
+        <v>0.01767233144249178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H11">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I11">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J11">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.474244666666666</v>
+        <v>3.474244666666667</v>
       </c>
       <c r="N11">
         <v>10.422734</v>
       </c>
       <c r="O11">
-        <v>0.3660779567502785</v>
+        <v>0.3973310777557461</v>
       </c>
       <c r="P11">
-        <v>0.3660779567502785</v>
+        <v>0.3973310777557461</v>
       </c>
       <c r="Q11">
-        <v>33.29726163842867</v>
+        <v>51.65673734144</v>
       </c>
       <c r="R11">
-        <v>299.675354745858</v>
+        <v>464.91063607296</v>
       </c>
       <c r="S11">
-        <v>0.07483003563492066</v>
+        <v>0.08765299789898549</v>
       </c>
       <c r="T11">
-        <v>0.07483003563492063</v>
+        <v>0.08765299789898549</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H12">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I12">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J12">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.995365333333333</v>
+        <v>2.336226333333333</v>
       </c>
       <c r="N12">
-        <v>8.986096</v>
+        <v>7.008679</v>
       </c>
       <c r="O12">
-        <v>0.3156188829957525</v>
+        <v>0.2671819103043467</v>
       </c>
       <c r="P12">
-        <v>0.3156188829957525</v>
+        <v>0.2671819103043467</v>
       </c>
       <c r="Q12">
-        <v>28.70766822026134</v>
+        <v>34.73613451264</v>
       </c>
       <c r="R12">
-        <v>258.369013982352</v>
+        <v>312.62521061376</v>
       </c>
       <c r="S12">
-        <v>0.06451569078696799</v>
+        <v>0.05894151435330344</v>
       </c>
       <c r="T12">
-        <v>0.06451569078696798</v>
+        <v>0.05894151435330344</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H13">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I13">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J13">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.264125333333334</v>
+        <v>2.233016333333333</v>
       </c>
       <c r="N13">
-        <v>6.792376000000001</v>
+        <v>6.699049</v>
       </c>
       <c r="O13">
-        <v>0.2385687985090697</v>
+        <v>0.2553783257932662</v>
       </c>
       <c r="P13">
-        <v>0.2385687985090697</v>
+        <v>0.2553783257932662</v>
       </c>
       <c r="Q13">
-        <v>21.69944285430134</v>
+        <v>33.20155869184</v>
       </c>
       <c r="R13">
-        <v>195.294985688712</v>
+        <v>298.81402822656</v>
       </c>
       <c r="S13">
-        <v>0.04876587449375375</v>
+        <v>0.05633759126177459</v>
       </c>
       <c r="T13">
-        <v>0.04876587449375373</v>
+        <v>0.05633759126177459</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H14">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I14">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J14">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7567149999999999</v>
+        <v>0.7004666666666667</v>
       </c>
       <c r="N14">
-        <v>2.270145</v>
+        <v>2.1014</v>
       </c>
       <c r="O14">
-        <v>0.07973436174489927</v>
+        <v>0.08010868614664106</v>
       </c>
       <c r="P14">
-        <v>0.07973436174489928</v>
+        <v>0.08010868614664106</v>
       </c>
       <c r="Q14">
-        <v>2.43755457288</v>
+        <v>1.708906111733333</v>
       </c>
       <c r="R14">
-        <v>21.93799115592</v>
+        <v>15.3801550056</v>
       </c>
       <c r="S14">
-        <v>0.005477996885490491</v>
+        <v>0.002899732958960232</v>
       </c>
       <c r="T14">
-        <v>0.00547799688549049</v>
+        <v>0.002899732958960232</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H15">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I15">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J15">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.474244666666666</v>
+        <v>3.474244666666667</v>
       </c>
       <c r="N15">
         <v>10.422734</v>
       </c>
       <c r="O15">
-        <v>0.3660779567502785</v>
+        <v>0.3973310777557461</v>
       </c>
       <c r="P15">
-        <v>0.3660779567502785</v>
+        <v>0.3973310777557461</v>
       </c>
       <c r="Q15">
-        <v>11.191348096096</v>
+        <v>8.476003537437332</v>
       </c>
       <c r="R15">
-        <v>100.722132864864</v>
+        <v>76.28403183693599</v>
       </c>
       <c r="S15">
-        <v>0.02515068614132394</v>
+        <v>0.0143823856963336</v>
       </c>
       <c r="T15">
-        <v>0.02515068614132393</v>
+        <v>0.0143823856963336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H16">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I16">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J16">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.995365333333333</v>
+        <v>2.336226333333333</v>
       </c>
       <c r="N16">
-        <v>8.986096</v>
+        <v>7.008679</v>
       </c>
       <c r="O16">
-        <v>0.3156188829957525</v>
+        <v>0.2671819103043467</v>
       </c>
       <c r="P16">
-        <v>0.3156188829957525</v>
+        <v>0.2671819103043467</v>
       </c>
       <c r="Q16">
-        <v>9.648766663424002</v>
+        <v>5.699616626190666</v>
       </c>
       <c r="R16">
-        <v>86.83889997081602</v>
+        <v>51.296549635716</v>
       </c>
       <c r="S16">
-        <v>0.02168399194796745</v>
+        <v>0.009671313169826041</v>
       </c>
       <c r="T16">
-        <v>0.02168399194796744</v>
+        <v>0.009671313169826041</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H17">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I17">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J17">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.264125333333334</v>
+        <v>2.233016333333333</v>
       </c>
       <c r="N17">
-        <v>6.792376000000001</v>
+        <v>6.699049</v>
       </c>
       <c r="O17">
-        <v>0.2385687985090697</v>
+        <v>0.2553783257932662</v>
       </c>
       <c r="P17">
-        <v>0.2385687985090697</v>
+        <v>0.2553783257932662</v>
       </c>
       <c r="Q17">
-        <v>7.293272975744003</v>
+        <v>5.447818491910667</v>
       </c>
       <c r="R17">
-        <v>65.63945678169603</v>
+        <v>49.030366427196</v>
       </c>
       <c r="S17">
-        <v>0.01639041319963279</v>
+        <v>0.009244053097453882</v>
       </c>
       <c r="T17">
-        <v>0.01639041319963278</v>
+        <v>0.009244053097453882</v>
       </c>
     </row>
   </sheetData>
